--- a/biology/Zoologie/Gaufre_(animal)/Gaufre_(animal).xlsx
+++ b/biology/Zoologie/Gaufre_(animal)/Gaufre_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaufre ou gauphre[1] est un nom vernaculaire ambigu en français, pouvant désigner des rongeurs classés dans plusieurs rangs taxinomiques dans la famille des Geomyidae[2] qui comporte aussi des espèces appelées rats à poches ou géomys[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaufre ou gauphre est un nom vernaculaire ambigu en français, pouvant désigner des rongeurs classés dans plusieurs rangs taxinomiques dans la famille des Geomyidae qui comporte aussi des espèces appelées rats à poches ou géomys.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des gaufres sont celles des rongeurs de la famille des Geomyidés, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur comportement ou leur physiologie respective.
-Caractéristiques communes
-Ce sont des mammifères rongeurs d'Amérique du Nord, pourvus d'abajoues de grande taille, s'ouvrant vers l’extérieur.
 </t>
         </is>
       </c>
@@ -541,28 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms français et noms scientifiques correspondants</t>
+          <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[4] en français. 
-Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Gaufre brun - Geomys bursarius[2]
-Gaufre de Botta - Thomomys bottae[2]
-Gaufre bulbivore - Thomomys bulbivorus[2]
-Gaufre gris - Thomomys talpoides[2]
-Gaufre à poche - voir Gaufre brun[2],[5]
-Gauphre à poche géant - Orthogeomys grandis[6]
-Gaufre à poche occidental - voir Gaufre de Botta[5]
-Gaufre à poche du Sud-Est - Geomys pinetis[2]
-Appellations génériques :
-Gaufres à poche - Geomyidae spp.[5],[2], notamment  le genre Geomys[2]
-Gaufres à poche des montagnes - genre Thomomys spp.[2] et notamment le Gaufre de Botta[5]
-Genres cités (noms scientifiques) :
-Geomys[7]
-Thomomys[8]
-Orthogeomys[9]</t>
+          <t>Caractéristiques communes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des mammifères rongeurs d'Amérique du Nord, pourvus d'abajoues de grande taille, s'ouvrant vers l’extérieur.
+</t>
         </is>
       </c>
     </row>
@@ -587,10 +590,60 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
+Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
+Gaufre brun - Geomys bursarius
+Gaufre de Botta - Thomomys bottae
+Gaufre bulbivore - Thomomys bulbivorus
+Gaufre gris - Thomomys talpoides
+Gaufre à poche - voir Gaufre brun,
+Gauphre à poche géant - Orthogeomys grandis
+Gaufre à poche occidental - voir Gaufre de Botta
+Gaufre à poche du Sud-Est - Geomys pinetis
+Appellations génériques :
+Gaufres à poche - Geomyidae spp. notamment  le genre Geomys
+Gaufres à poche des montagnes - genre Thomomys spp. et notamment le Gaufre de Botta
+Genres cités (noms scientifiques) :
+Geomys
+Thomomys
+Orthogeomys</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaufre_(animal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaufre_(animal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspects culturels communs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Amérique du Nord, les gaufres (en anglais : gopher), sont des rongeurs populaires. C'est un surnom couramment attribué à des personnalités ou donné à des marques commerciales.
 Ce surnom « gopher » cache parfois un jeu de mots avec gofer (de go + for (gofer (en))), sorte de coursier spécialisé dans une tâche précise, c'est le cas du personnage de fiction Scooter (en), l'un des Muppet du Muppet Show et de Burl « Gopher » Smith de la série La croisière s'amuse, interprété par Fred Grandy.
